--- a/biology/Botanique/Lilium_ponticum/Lilium_ponticum.xlsx
+++ b/biology/Botanique/Lilium_ponticum/Lilium_ponticum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lilium ponticum est une espèce de plantes herbacées pluri-annuelles de la famille des Liliaceae.
 Les pétales de sa fleur sont couleur jaune « beurre » tacheté marron foncé. Elle la trouve au bord de la mer Noire à l'est de la Turquie.
@@ -513,13 +525,15 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Lilium carniolicum subsp. ponticum (K.Koch) P.H.Davis &amp; D.M.Hend., 1983[2],[1]
-Lilium ponticum K. Koch[3]
-Lilium pyrenaicum subsp. ponticum (K.Koch) V.A.Matthews[2],[3],[1]
-Lilium szovitsianum subsp. ponticum (K.Koch) Kudrjasch.[2],[1]
-Lilium szovitsianum subsp. ponticum G. Kudrjaschova[1]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Lilium carniolicum subsp. ponticum (K.Koch) P.H.Davis &amp; D.M.Hend., 1983,
+Lilium ponticum K. Koch
+Lilium pyrenaicum subsp. ponticum (K.Koch) V.A.Matthews
+Lilium szovitsianum subsp. ponticum (K.Koch) Kudrjasch.,
+Lilium szovitsianum subsp. ponticum G. Kudrjaschova</t>
         </is>
       </c>
     </row>
@@ -547,12 +561,14 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (17 juillet 2018)[4] et World Checklist of Selected Plant Families (WCSP)  (17 juillet 2018)[5] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (17 juillet 2018) et World Checklist of Selected Plant Families (WCSP)  (17 juillet 2018) :
 variété Lilium ponticum var. artvinense (Miscz.) P.H.Davis &amp; D.M.Hend. (1969)
 variété Lilium ponticum var. ponticum
-Selon The Plant List            (17 juillet 2018)[1] et Tropicos                                           (17 juillet 2018)[6] :
+Selon The Plant List            (17 juillet 2018) et Tropicos                                           (17 juillet 2018) :
 variété Lilium ponticum var. artvinense (Miscz.) P.H. Davis &amp; D.M. Hend.</t>
         </is>
       </c>
